--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-general-alu.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-general-alu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmcconnell\Desktop\CV32E40P VPLANS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/Verification/v2_VerifPlans/Simulation/instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_12072C97E4705E3A77518FD3E22CDE93510A316D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223C4420-3BB1-41B7-9D1B-348FE25CFA09}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="3705" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -345,13 +346,22 @@
   </si>
   <si>
     <t>Limited testing of randomized scenarios, including tests where (rD - rs1)&lt;0 and (rD - rs1)&gt;0, as well as scenarios where rounding does and does not occur, and with a variety of rs2[4:0] values</t>
+  </si>
+  <si>
+    <t>Below are plans for CV32E40P v1</t>
+  </si>
+  <si>
+    <t>Link to Coverage</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,13 +384,41 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,14 +445,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,6 +489,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,14 +757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -711,835 +777,914 @@
     <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I1" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="XFD2" s="2"/>
+    </row>
+    <row r="3" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:9 16384:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9 16384:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9 16384:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9 16384:16384" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9 16384:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="45">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="75">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="75">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1547,4 +1692,271 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
+    <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <xsd:import namespace="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="68bd86b6-d639-4884-9680-62e746fab3da" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="51aa521f-7cbd-47c5-afee-4a8147a04eed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{67132edb-7ad2-4046-b569-46a3488a100c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="51aa521f-7cbd-47c5-afee-4a8147a04eed">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77825C02-EF30-49B8-9EE5-D4CB7BB83022}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
+    <ds:schemaRef ds:uri="51aa521f-7cbd-47c5-afee-4a8147a04eed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61229B18-0FBD-438F-8111-DFD7A20A8FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-general-alu.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-general-alu.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dolphinintegrationfr.sharepoint.com/sites/PANTHER/Documents partages/General/CV32E40P/Verification/v2_VerifPlans/Simulation/instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\xpulp_instruction_extensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_12072C97E4705E3A77518FD3E22CDE93510A316D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223C4420-3BB1-41B7-9D1B-348FE25CFA09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A4CF5A-8801-4315-845E-520D35394A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3705" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="174">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -354,7 +365,350 @@
     <t>Link to Coverage</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>CV32E40P User Manual - Chapter 17.4.4 General ALU operations</t>
+  </si>
+  <si>
+    <t>CV.ABS</t>
+  </si>
+  <si>
+    <t>cv.abs rD, rs1
+rD = rs1 &lt; 0 ? -rs1 : rs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register operands 
+All possible rs1 registers are used.
+All possible rs2 registers are used.
+All possible rD registers are used.
+All possible register combinations where first operand is the destination register of the previous instruction  
+All possible register combinations where second operand is the destination register of the previous instruction
+</t>
+  </si>
+  <si>
+    <t>Check against RM</t>
+  </si>
+  <si>
+    <t>Constrained-Random</t>
+  </si>
+  <si>
+    <t>Functional Coverage</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of rs1 are toggled 
+All bits of rs2 are toggled 
+All bits of rD are toggled</t>
+  </si>
+  <si>
+    <t>CV.SLET</t>
+  </si>
+  <si>
+    <t>cv.slet rD, rs1, rs2
+rD = rs1 &lt;= rs2 ? 1 : 0
+Note: Comparison is signed.</t>
+  </si>
+  <si>
+    <t>CV.MIN</t>
+  </si>
+  <si>
+    <t>cv.min rD, rs1, rs2
+rD = rs1 &lt; rs2 ? rs1 : rs2
+Note: Comparison is signed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register operands 
+All possible rs1 registers are used.
+All possible rD registers are used.
+All possible register combinations where first operand is the destination register of the previous instruction  
+</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of rs1 are toggled 
+All bits of rD are toggled</t>
+  </si>
+  <si>
+    <t>cv.max rD, rs1, rs2
+rD = rs1 &lt; rs2 ? rs2 : rs1
+Note: Comparison is signed.</t>
+  </si>
+  <si>
+    <t>CV.SLETU</t>
+  </si>
+  <si>
+    <t>cv.sletu rD, rs1, rs2
+rD = rs1 &lt;= rs2 ? 1 : 0
+Note: Comparison is unsigned.</t>
+  </si>
+  <si>
+    <t>CV.MINU</t>
+  </si>
+  <si>
+    <t>cv.minu rD, rs1, rs2
+rD = rs1 &lt; rs2 ? rs1 : rs2
+Note: Comparison is unsigned.</t>
+  </si>
+  <si>
+    <t>CV.MAXU</t>
+  </si>
+  <si>
+    <t>cv.maxu rD, rs1, rs2
+rD = rs1 &lt; rs2 ? rs2 : rs1
+Note: Comparison is unsigned.</t>
+  </si>
+  <si>
+    <t>CV.MAX</t>
+  </si>
+  <si>
+    <t>CV.EXTHS</t>
+  </si>
+  <si>
+    <t>CV.EXTHZ</t>
+  </si>
+  <si>
+    <t>CV.EXTBS</t>
+  </si>
+  <si>
+    <t>CV.EXTBZ</t>
+  </si>
+  <si>
+    <t>cv.exths rD, rs1
+rD = Sext(rs1[15:0])</t>
+  </si>
+  <si>
+    <t>cv.exthz rD, rs1
+rD = Zext(rs1[15:0])</t>
+  </si>
+  <si>
+    <t>cv.extbs rD, rs1
+rD = Sext(rs1[7:0])</t>
+  </si>
+  <si>
+    <t>cv.extbz rD, rs1
+rD = Zext(rs1[7:0])</t>
+  </si>
+  <si>
+    <t>CV.CLIP</t>
+  </si>
+  <si>
+    <t>CV.CLIPU</t>
+  </si>
+  <si>
+    <t>CV.CLIPR</t>
+  </si>
+  <si>
+    <t>CV.CLIPUR</t>
+  </si>
+  <si>
+    <t>CV.ADDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register operands 
+All possible rs1 registers are used.
+All possible rD registers are used.
+All possible register combinations where first operand is the destination register of the previous instruction  
+</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of rs1 are toggled 
+All bits of Is2 are toggled 
+All bits of rD are toggled</t>
+  </si>
+  <si>
+    <t>cv.clip rD, rs1, Is2
+if rs1 &lt;= -2^(Is2-1), rD = -2^(Is2-1),            
+else if rs1 &gt;= 2^(Is2-1)-1, rD = 2^(Is2-1)-1,
+else rD = rs1
+Note: If ls2 is equal to 0, -2^(Is2-1) is equivalent to -1 while (2^(Is2-1)-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.clipu rD, rs1, Is2	
+if rs1 &lt;= 0, rD = 0,
+else if rs1 &gt;= 2^(Is2-1)-1, rD = 2^(Is2-1)-1,
+else rD = rs1
+Note: If ls2 is equal to 0, (2^(Is2-1)-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.clipr rD, rs1, rs2	
+if rs1 &lt;= -(rs2+1), rD = -(rs2+1),
+else if rs1 &gt;=rs2, rD = rs2,
+else rD = rs1</t>
+  </si>
+  <si>
+    <t>cv.clipur rD, rs1, rs2	
+if rs1 &lt;= 0, rD = 0,
+else if rs1 &gt;= rs2, rD = rs2,
+else rD = rs1</t>
+  </si>
+  <si>
+    <t>Input Values:
+Is2 is 0, 1, 31</t>
+  </si>
+  <si>
+    <t>CV.ADDUN</t>
+  </si>
+  <si>
+    <t>Input Values:
+Is3 is 0, 1, 31</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of rs1 are toggled 
+All bits of rs2 are toggled 
+All bits of Is3 are toggled 
+All bits of rD are toggled</t>
+  </si>
+  <si>
+    <t>CV.ADDRN</t>
+  </si>
+  <si>
+    <t>CV.ADDURN</t>
+  </si>
+  <si>
+    <t>cv.addRN rD, rs1, rs2, Is3	
+rD = (rs1 + rs2 + 2^(Is3-1)) &gt;&gt;&gt; Is3
+Note: Arithmetic shift right.
+If Is3 is equal to 0, 2^(Is3-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.adduRN rD, rs1, rs2, Is3	
+rD = (rs1 + rs2 + 2^(Is3-1))) &gt;&gt; Is3
+Note: Logical shift right.
+If Is3 is equal to 0, 2^(Is3-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>CV.SUBN</t>
+  </si>
+  <si>
+    <t>CV.SUBUN</t>
+  </si>
+  <si>
+    <t>CV.SUBRN</t>
+  </si>
+  <si>
+    <t>CV.SUBURN</t>
+  </si>
+  <si>
+    <t>cv.subRN rD, rs1, rs2, Is3	
+rD = (rs1 - rs2 + 2^(Is3-1)) &gt;&gt;&gt; Is3
+Note: Arithmetic shift right.
+If Is3 is equal to 0, 2^(Is3-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.subuRN rD, rs1, rs2, Is3	
+rD = (rs1 - rs2 + 2^(Is3-1))) &gt;&gt; Is3
+Note: Logical shift right.
+If Is3 is equal to 0, 2^(Is3-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>CV.ADDNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv.addNr rD, rs1, rs2	
+rD = (rD + rs1) &gt;&gt;&gt; rs2[4:0]
+Note: Arithmetic shift right.
+</t>
+  </si>
+  <si>
+    <t>CV.ADDUNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv.adduNr rD, rs1, rs2	
+rD = (rD + rs1) &gt;&gt;&gt; rs2[4:0]
+Note: Logic shift right.
+</t>
+  </si>
+  <si>
+    <t>CV.ADDRNR</t>
+  </si>
+  <si>
+    <t>coverage:
+All bits of rs1 are toggled 
+All bits of rs2 are toggled 
+All bits of rs2 are toggled 
+All bits of rD are toggled</t>
+  </si>
+  <si>
+    <t>Input Values:
+rs2[4:0] is 0, 1, 31</t>
+  </si>
+  <si>
+    <t>CV.ADDURNR</t>
+  </si>
+  <si>
+    <t>CV.SUBNR</t>
+  </si>
+  <si>
+    <t>CV.SUBUNR</t>
+  </si>
+  <si>
+    <t>CV.SUBRNR</t>
+  </si>
+  <si>
+    <t>CV.SUBURNR</t>
+  </si>
+  <si>
+    <t>cv.addN rD, rs1, rs2, Is3	
+rD = (rs1 + rs2) &gt;&gt;&gt; Is3
+Note: Arithmetic shift right.
+Setting Is3 to 1 replaces former cv.avg.</t>
+  </si>
+  <si>
+    <t>cv.adduN rD, rs1, rs2, Is3	
+rD = (rs1 + rs2) &gt;&gt; Is3
+Note: Logical shift right.
+Setting Is3 to 1 replaces former cv.avg.</t>
+  </si>
+  <si>
+    <t>cv.subN rD, rs1, rs2, Is3	
+rD = (rs1 - rs2) &gt;&gt;&gt; Is3
+Note: Arithmetic shift right.
+Setting Is3 to 1 replaces former cv.avg.</t>
+  </si>
+  <si>
+    <t>cv.subuN rD, rs1, rs2, Is3	
+rD = (rs1 - rs2) &gt;&gt; Is3
+Note: Logical shift right.
+Setting Is3 to 1 replaces former cv.avg.</t>
+  </si>
+  <si>
+    <t>RV32Xpulp General ALU operations</t>
+  </si>
+  <si>
+    <t>cv.addRNr rD, rs1, rs2
+rD = (rD + rs1 + 2^(rs2[4:0]-1)) &gt;&gt;&gt; rs2[4:0]
+Note: Arithmetic shift right.
+If rs2[4:0] is equal to 0, 2^(rs2[4:0]-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.adduRNr rD, rs1, rs2	
+rD = (rD + rs1 + 2^(rs2[4:0]-1))) &gt;&gt; rs2[4:0]
+Note: Logical shift right.
+If rs2[4:0] is equal to 0, 2^(rs2[4:0]-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.subNr rD, rs1, rs2
+rD = (rD - rs1) &gt;&gt;&gt; rs2[4:0]
+Note: Arithmetic shift right.
+Setting rs2[4:0] to 1 replaces former cv.avg.</t>
+  </si>
+  <si>
+    <t>cv.subuNr rD, rs1, rs2	
+rD = (rD - rs1) &gt;&gt; rs2[4:0]
+Note: Logical shift right.
+Setting rs2[4:0] to 1 replaces former cv.avg.</t>
+  </si>
+  <si>
+    <t>cv.subRNr rD, rs1, rs2	
+rD = (rD - rs1 + 2^(rs2[4:0]-1)) &gt;&gt;&gt; rs2[4:0]
+Note: Arithmetic shift right.
+If Is3 is equal to 0, 2^(Is3-1) is equivalent to 0.</t>
+  </si>
+  <si>
+    <t>cv.subuRNr rD, rs1, rs2
+rD = (rD - rs1 + 2^(rs2[4:0]-1))) &gt;&gt; rs2[4:0]
+Note: Logical shift right.
+If rs2[4:0] is equal to 0, 2^(rs2[4:0]-1) is equivalent to 0.</t>
   </si>
 </sst>
 </file>
@@ -434,18 +788,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -470,8 +814,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,10 +866,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,943 +1131,2577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD39"/>
+  <dimension ref="A1:XFD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9 16384:16384" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9 16384:16384" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="XFD2" s="2"/>
-    </row>
-    <row r="3" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:9 16384:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9 16384:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="XFD2" s="13"/>
+    </row>
+    <row r="3" spans="1:9 16384:16384" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9 16384:16384" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9 16384:16384" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9 16384:16384" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9 16384:16384" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B90" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C90" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D90" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E90" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F90" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G90" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H90" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B91" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C91" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D91" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E91" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F91" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G91" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H91" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B92" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C92" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D92" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E92" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F92" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G92" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H92" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B93" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C93" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D93" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E93" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F93" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G93" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H93" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:9 16384:16384" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="94" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B94" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C94" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D94" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E94" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F94" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G94" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H94" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:9 16384:16384" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="95" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C95" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D95" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E95" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F95" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G95" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H95" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B96" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C96" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D96" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E96" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F96" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G96" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H96" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:9 16384:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B97" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C97" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D97" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E97" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F97" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G97" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H97" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C98" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D98" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E98" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F98" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G98" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H98" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B99" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C99" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D99" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E99" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F99" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G99" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H99" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B100" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C100" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D100" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E100" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F100" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G100" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H100" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="101" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B101" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C101" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D101" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E101" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F101" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G101" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H101" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B102" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C102" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D102" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E102" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F102" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G102" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H102" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="103" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B103" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C103" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D103" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E103" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F103" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G103" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H103" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B104" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C104" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D104" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E104" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F104" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G104" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H104" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B105" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C105" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D105" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E105" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F105" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G105" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H105" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B106" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C106" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D106" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E106" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F106" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G106" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H106" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="107" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B107" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C107" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D107" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E107" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F107" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G107" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H107" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="108" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B108" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C108" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D108" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E108" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F108" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G108" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H108" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B109" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C109" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D109" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E109" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F109" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G109" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H109" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B110" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C110" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D110" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E110" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F110" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G110" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H110" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="111" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B111" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C111" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D111" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E111" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F111" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G111" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H111" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B112" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C112" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D112" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E112" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F112" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G112" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H112" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B113" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C113" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D113" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E113" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F113" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G113" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H113" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B114" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C114" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D114" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E114" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F114" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G114" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H114" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="115" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B115" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C115" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D115" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E115" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F115" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G115" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H115" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B116" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C116" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D116" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E116" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F116" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G116" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H116" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B117" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C117" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D117" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E117" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F117" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G117" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H117" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B118" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C118" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D118" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E118" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F118" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G118" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H118" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="119" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B119" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C119" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D119" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E119" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F119" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G119" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H119" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B120" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C120" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D120" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E120" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F120" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G120" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H120" s="14" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="A2:A81"/>
+    <mergeCell ref="B2:B81"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -1925,16 +3932,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61229B18-0FBD-438F-8111-DFD7A20A8FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77825C02-EF30-49B8-9EE5-D4CB7BB83022}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1951,12 +3957,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61229B18-0FBD-438F-8111-DFD7A20A8FE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-general-alu.xlsx
+++ b/cv32e40p/docs/VerifPlans/Simulation/xpulp_instruction_extensions/CV32E40P_xpulp-general-alu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Simulation - Copie\xpulp_instruction_extensions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\git_repos\corev-v-verif\cv32e40p\docs\VerifPlans\Simulation\xpulp_instruction_extensions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE8F50-D7EC-4F6A-A43E-CE46F9B31F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78714288-5A22-4ED0-AF6D-9A0F24C2E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5250" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="203">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -710,9 +710,6 @@
 If rs2[4:0] is equal to 0, 2^(rs2[4:0]-1) is equivalent to 0.</t>
   </si>
   <si>
-    <t>Related Test Program(s)</t>
-  </si>
-  <si>
     <t>corev_rand_pulp_instr_test
 pulp_general_alu</t>
   </si>
@@ -798,6 +795,18 @@
   </si>
   <si>
     <t>Toggle is not a requirement of CV32E40Pv2 verification, but the corresponding coverage from the Reference Model Coverage Package exists and is given for reference purposes only.</t>
+  </si>
+  <si>
+    <t>UMV Test Config</t>
+  </si>
+  <si>
+    <t>Test-Program(s) Name(s)</t>
+  </si>
+  <si>
+    <t>Test-Program Type</t>
+  </si>
+  <si>
+    <t>see CV32E40Pv2_test_list.xlsx</t>
   </si>
 </sst>
 </file>
@@ -885,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -954,9 +963,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1259,17 +1265,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1280,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,16 +1299,17 @@
     <col min="3" max="3" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="84.140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="49.85546875" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="26.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="84.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="49.85546875" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1318,112 +1325,126 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>173</v>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="L1" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>100</v>
+      <c r="F2" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="13" t="str">
+      <c r="J2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C2),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D2)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C2),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_abs_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_abs_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_abs_cg.cp_rd</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>100</v>
+      <c r="F3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J3" s="13" t="str">
+      <c r="J3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C2),LOWER($C1),LOWER($C2)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D2),$D1,$D2))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C2),LOWER($C1),LOWER($C2)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_abs_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_abs_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26" t="s">
+      <c r="L3" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>104</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>100</v>
+      <c r="F4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="13" t="str">
+      <c r="J4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C4),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D4)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C4),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_slet_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_slet_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1431,59 +1452,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_slet_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>100</v>
+      <c r="F5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="13" t="str">
+      <c r="J5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C4),LOWER($C3),LOWER($C4)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D4),$D3,$D4))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C4),LOWER($C3),LOWER($C4)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_slet_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_slet_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_slet_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
+      <c r="L5" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>100</v>
+      <c r="F6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C6),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D6)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C6),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sletu_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sletu_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1491,59 +1520,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sletu_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>100</v>
+      <c r="F7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C6),LOWER($C5),LOWER($C6)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D6),$D5,$D6))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C6),LOWER($C5),LOWER($C6)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sletu_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sletu_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_sletu_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="L7" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>106</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>100</v>
+      <c r="F8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C8),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D8)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C8),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_min_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_min_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1551,59 +1588,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_min_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>100</v>
+      <c r="F9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C8),LOWER($C7),LOWER($C8)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D8),$D7,$D8))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C8),LOWER($C7),LOWER($C8)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_min_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_min_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_min_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26" t="s">
+      <c r="L9" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>100</v>
+      <c r="F10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C10),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D10)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C10),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_minu_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_minu_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1611,59 +1656,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_minu_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>100</v>
+      <c r="F11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C10),LOWER($C9),LOWER($C10)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D10),$D9,$D10))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C10),LOWER($C9),LOWER($C10)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_minu_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_minu_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_minu_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26" t="s">
+      <c r="L11" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>109</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>100</v>
+      <c r="F12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="13" t="str">
+      <c r="J12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K12" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C12),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D12)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C12),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_max_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_max_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1671,59 +1724,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_max_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>100</v>
+      <c r="F13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="13" t="str">
+      <c r="J13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C12),LOWER($C11),LOWER($C12)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D12),$D11,$D12))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C12),LOWER($C11),LOWER($C12)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_max_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_max_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_max_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26" t="s">
+      <c r="L13" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>100</v>
+      <c r="F14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="13" t="str">
+      <c r="J14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C14),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D14)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C14),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_maxu_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_maxu_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -1731,451 +1792,517 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_maxu_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>100</v>
+      <c r="F15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J15" s="13" t="str">
+      <c r="J15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K15" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C14),LOWER($C13),LOWER($C14)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D14),$D13,$D14))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C14),LOWER($C13),LOWER($C14)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_maxu_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_maxu_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_maxu_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26" t="s">
+      <c r="L15" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>100</v>
+      <c r="F16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="13" t="str">
+      <c r="J16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C16),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D16)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C16),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exths_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exths_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exths_cg.cp_rd</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>100</v>
+      <c r="F17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="J17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C16),LOWER($C15),LOWER($C16)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D16),$D15,$D16))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C16),LOWER($C15),LOWER($C16)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exths_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exths_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
+      <c r="L17" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>122</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>100</v>
+      <c r="F18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="13" t="str">
+      <c r="J18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C18),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D18)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C18),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exthz_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exthz_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exthz_cg.cp_rd</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>100</v>
+      <c r="F19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="13" t="str">
+      <c r="J19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K19" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C18),LOWER($C17),LOWER($C18)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D18),$D17,$D18))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C18),LOWER($C17),LOWER($C18)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exthz_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_exthz_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26" t="s">
+      <c r="L19" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>123</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>100</v>
+      <c r="F20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J20" s="13" t="str">
+      <c r="J20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C20),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D20)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C20),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbs_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbs_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbs_cg.cp_rd</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>100</v>
+      <c r="F21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="13" t="str">
+      <c r="J21" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C20),LOWER($C19),LOWER($C20)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D20),$D19,$D20))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C20),LOWER($C19),LOWER($C20)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbs_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbs_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26" t="s">
+      <c r="L21" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>124</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>100</v>
+      <c r="F22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="13" t="str">
+      <c r="J22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C22),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D22)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C22),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbz_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbz_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbz_cg.cp_rd</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>100</v>
+      <c r="F23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="13" t="str">
+      <c r="J23" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C22),LOWER($C21),LOWER($C22)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D22),$D21,$D22))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C22),LOWER($C21),LOWER($C22)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbz_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_extbz_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26" t="s">
+      <c r="L23" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>132</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>100</v>
+      <c r="F24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="13" t="str">
+      <c r="J24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C24),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D24)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C24),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clip_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clip_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clip_cg.cp_rd</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>100</v>
+      <c r="F25" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="J25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>100</v>
+      <c r="F26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="13" t="str">
+      <c r="J26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C25),LOWER($C24),LOWER($C25)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D25),$D24,$D25))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C25),LOWER($C24),LOWER($C25)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clip_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clip_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26" t="s">
+      <c r="L26" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>100</v>
+      <c r="F27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="13" t="str">
+      <c r="J27" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K27" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C27),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D27)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C27),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipu_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipu_cg.cp_gpr_hazard[RAW_HAZARD]
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipu_cg.cp_rd</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>100</v>
+      <c r="F28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
+      <c r="J28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>100</v>
+      <c r="F29" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="13" t="str">
+      <c r="J29" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C28),LOWER($C27),LOWER($C28)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D28),$D27,$D28))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C28),LOWER($C27),LOWER($C28)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipu_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipu_cg.cp_rs1_toggle</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
+      <c r="L29" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>134</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>100</v>
+      <c r="F30" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="13" t="str">
+      <c r="J30" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C30),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D30)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C30),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2183,59 +2310,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>100</v>
+      <c r="F31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="13" t="str">
+      <c r="J31" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C30),LOWER($C29),LOWER($C30)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D30),$D29,$D30))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C30),LOWER($C29),LOWER($C30)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26" t="s">
+      <c r="L31" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>100</v>
+      <c r="F32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="13" t="str">
+      <c r="J32" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C32),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D32)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C32),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipur_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipur_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2243,59 +2378,67 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipur_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
+    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>100</v>
+      <c r="F33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="13" t="str">
+      <c r="J33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C32),LOWER($C31),LOWER($C32)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D32),$D31,$D32))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C32),LOWER($C31),LOWER($C32)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipur_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipur_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_clipur_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K33" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26" t="s">
+      <c r="L33" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>162</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>100</v>
+      <c r="F34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="13" t="str">
+      <c r="J34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C34),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D34)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C34),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2303,81 +2446,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>100</v>
+      <c r="F35" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
+      <c r="J35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>100</v>
+      <c r="F36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J36" s="13" t="str">
+      <c r="J36" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K36" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C35),LOWER($C34),LOWER($C35)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D35),$D34,$D35))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C35),LOWER($C34),LOWER($C35)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K36" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26" t="s">
+      <c r="L36" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="26" t="s">
         <v>163</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>100</v>
+      <c r="F37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J37" s="13" t="str">
+      <c r="J37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C37),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D37)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C37),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addun_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addun_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2385,81 +2541,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addun_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
+    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>100</v>
+      <c r="F38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K38" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
+      <c r="J38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>100</v>
+      <c r="F39" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J39" s="13" t="str">
+      <c r="J39" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C38),LOWER($C37),LOWER($C38)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D38),$D37,$D38))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C38),LOWER($C37),LOWER($C38)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addun_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addun_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addun_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K39" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26" t="s">
+      <c r="L39" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>142</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>100</v>
+      <c r="F40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="13" t="str">
+      <c r="J40" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C40),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D40)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C40),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2467,81 +2636,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>100</v>
+      <c r="F41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K41" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
+      <c r="J41" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>100</v>
+      <c r="F42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J42" s="13" t="str">
+      <c r="J42" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C41),LOWER($C40),LOWER($C41)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D41),$D40,$D41))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C41),LOWER($C40),LOWER($C41)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K42" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26" t="s">
+      <c r="L42" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="26" t="s">
         <v>143</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>100</v>
+      <c r="F43" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J43" s="13" t="str">
+      <c r="J43" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K43" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C43),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D43)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C43),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2549,81 +2731,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>100</v>
+      <c r="F44" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
+      <c r="J44" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>100</v>
+      <c r="F45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="13" t="str">
+      <c r="J45" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K45" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C44),LOWER($C43),LOWER($C44)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D44),$D43,$D44))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C44),LOWER($C43),LOWER($C44)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K45" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26" t="s">
+      <c r="L45" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>100</v>
+      <c r="F46" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J46" s="13" t="str">
+      <c r="J46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C46),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D46)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C46),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2631,81 +2826,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
+    <row r="47" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>100</v>
+      <c r="F47" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K47" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
+      <c r="J47" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>100</v>
+      <c r="F48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J48" s="13" t="str">
+      <c r="J48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K48" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C47),LOWER($C46),LOWER($C47)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D47),$D46,$D47))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C47),LOWER($C46),LOWER($C47)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K48" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26" t="s">
+      <c r="L48" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="26" t="s">
         <v>165</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>100</v>
+      <c r="F49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J49" s="13" t="str">
+      <c r="J49" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K49" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C49),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D49)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C49),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subun_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subun_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2713,81 +2921,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subun_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
+    <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>100</v>
+      <c r="F50" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
+      <c r="J50" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>100</v>
+      <c r="F51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J51" s="13" t="str">
+      <c r="J51" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C50),LOWER($C49),LOWER($C50)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D50),$D49,$D50))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C50),LOWER($C49),LOWER($C50)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subun_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subun_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subun_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K51" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26" t="s">
+      <c r="L51" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="26" t="s">
         <v>148</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>100</v>
+      <c r="F52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J52" s="13" t="str">
+      <c r="J52" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C52),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D52)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C52),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2795,81 +3016,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>100</v>
+      <c r="F53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K53" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
+      <c r="J53" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L53" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>100</v>
+      <c r="F54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J54" s="13" t="str">
+      <c r="J54" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K54" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C53),LOWER($C52),LOWER($C53)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D53),$D52,$D53))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C53),LOWER($C52),LOWER($C53)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K54" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26" t="s">
+      <c r="L54" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="26" t="s">
         <v>149</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>100</v>
+      <c r="F55" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J55" s="13" t="str">
+      <c r="J55" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K55" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C55),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D55)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C55),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburn_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburn_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2877,81 +3111,94 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburn_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
+    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>100</v>
+      <c r="F56" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
+      <c r="J56" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>100</v>
+      <c r="F57" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J57" s="13" t="str">
+      <c r="J57" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K57" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C56),LOWER($C55),LOWER($C56)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D56),$D55,$D56))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C56),LOWER($C55),LOWER($C56)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburn_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburn_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburn_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26" t="s">
+      <c r="L57" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="26" t="s">
         <v>151</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>100</v>
+      <c r="F58" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J58" s="13" t="str">
+      <c r="J58" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K58" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C58),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D58)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C58),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -2959,25 +3206,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
+    <row r="59" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>100</v>
+      <c r="F59" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J59" s="12" t="str">
+      <c r="J59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K59" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C58),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rs2_maxvals.one
@@ -2985,59 +3237,67 @@
 </v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
+    <row r="60" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>100</v>
+      <c r="F60" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J60" s="13" t="str">
+      <c r="J60" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K60" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C59),LOWER($C58),LOWER($C59)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D59),$D58,$D59))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C59),LOWER($C58),LOWER($C59)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addnr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K60" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26" t="s">
+      <c r="L60" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>153</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F61" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>100</v>
+      <c r="F61" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J61" s="13" t="str">
+      <c r="J61" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K61" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C61),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D61)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C61),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3045,25 +3305,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+    <row r="62" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>100</v>
+      <c r="F62" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="12" t="str">
+      <c r="J62" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K62" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C61),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rs2_maxvals.one
@@ -3071,59 +3336,67 @@
 </v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
+    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>100</v>
+      <c r="F63" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J63" s="13" t="str">
+      <c r="J63" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K63" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C62),LOWER($C61),LOWER($C62)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D62),$D61,$D62))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C62),LOWER($C61),LOWER($C62)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addunr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K63" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26" t="s">
+      <c r="L63" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>167</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>100</v>
+      <c r="F64" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J64" s="13" t="str">
+      <c r="J64" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K64" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C64),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D64)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C64),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3131,25 +3404,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
+    <row r="65" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>100</v>
+      <c r="F65" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J65" s="12" t="str">
+      <c r="J65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K65" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C64),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rs2_maxvals.one
@@ -3157,59 +3435,67 @@
 </v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
+    <row r="66" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>100</v>
+      <c r="F66" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J66" s="13" t="str">
+      <c r="J66" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K66" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C65),LOWER($C64),LOWER($C65)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D65),$D64,$D65))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C65),LOWER($C64),LOWER($C65)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addrnr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K66" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26" t="s">
+      <c r="L66" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="26" t="s">
         <v>168</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>100</v>
+      <c r="F67" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J67" s="13" t="str">
+      <c r="J67" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K67" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C67),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D67)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C67),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3217,25 +3503,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
+    <row r="68" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>100</v>
+      <c r="F68" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J68" s="12" t="str">
+      <c r="J68" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K68" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C67),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rs2_maxvals.one
@@ -3243,59 +3534,67 @@
 </v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
+    <row r="69" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>100</v>
+      <c r="F69" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="13" t="str">
+      <c r="J69" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K69" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C68),LOWER($C67),LOWER($C68)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D68),$D67,$D68))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C68),LOWER($C67),LOWER($C68)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_addurnr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K69" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26" t="s">
+      <c r="L69" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="26" t="s">
         <v>169</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F70" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>100</v>
+      <c r="F70" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I70" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J70" s="13" t="str">
+      <c r="J70" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K70" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C70),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D70)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C70),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3303,25 +3602,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
+    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>100</v>
+      <c r="F71" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J71" s="12" t="str">
+      <c r="J71" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K71" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C70),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rs2_maxvals.one
@@ -3329,59 +3633,67 @@
 </v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
+    <row r="72" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>100</v>
+      <c r="F72" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J72" s="13" t="str">
+      <c r="J72" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K72" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C71),LOWER($C70),LOWER($C71)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D71),$D70,$D71))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C71),LOWER($C70),LOWER($C71)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subnr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26" t="s">
+      <c r="L72" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="26" t="s">
         <v>170</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>100</v>
+      <c r="F73" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J73" s="13" t="str">
+      <c r="J73" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K73" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C73),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D73)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C73),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3389,25 +3701,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
+    <row r="74" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>100</v>
+      <c r="F74" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J74" s="12" t="str">
+      <c r="J74" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K74" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C73),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rs2_maxvals.one
@@ -3415,59 +3732,67 @@
 </v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
+    <row r="75" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F75" s="25"/>
-      <c r="G75" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>100</v>
+      <c r="F75" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J75" s="13" t="str">
+      <c r="J75" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K75" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C74),LOWER($C73),LOWER($C74)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D74),$D73,$D74))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C74),LOWER($C73),LOWER($C74)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subunr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K75" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26" t="s">
+      <c r="L75" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D76" s="26" t="s">
         <v>171</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F76" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>100</v>
+      <c r="F76" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J76" s="13" t="str">
+      <c r="J76" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K76" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C76),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D76)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C76),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3475,25 +3800,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
+    <row r="77" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>100</v>
+      <c r="F77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J77" s="12" t="str">
+      <c r="J77" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K77" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C76),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rs2_maxvals.one
@@ -3501,59 +3831,67 @@
 </v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
+    <row r="78" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>100</v>
+      <c r="F78" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I78" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J78" s="13" t="str">
+      <c r="J78" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K78" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C77),LOWER($C76),LOWER($C77)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D77),$D76,$D77))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C77),LOWER($C76),LOWER($C77)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_subrnr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K78" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26" t="s">
+      <c r="L78" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="26" t="s">
         <v>172</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F79" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>100</v>
+      <c r="F79" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I79" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J79" s="13" t="str">
+      <c r="J79" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K79" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$14,"INSTR",SUBSTITUTE(LOWER($C79),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",$D79)),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$17,"INSTR",SUBSTITUTE(LOWER($C79),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rs1
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_gpr_hazard[RAW_HAZARD]
@@ -3561,25 +3899,30 @@
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rs2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
+    <row r="80" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>100</v>
+      <c r="F80" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J80" s="12" t="str">
+      <c r="J80" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K80" s="12" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$20,"INSTR",SUBSTITUTE(LOWER($C79),".","_"))</f>
         <v xml:space="preserve">CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rs2_maxvals.zeros
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rs2_maxvals.one
@@ -3587,99 +3930,104 @@
 </v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
+    <row r="81" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>100</v>
+      <c r="F81" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J81" s="13" t="str">
+      <c r="J81" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K81" s="13" t="str">
         <f>SUBSTITUTE(DONOTDELETE!$A$15,"INSTR",SUBSTITUTE(IF(ISBLANK($C80),LOWER($C79),LOWER($C80)),".","_")) &amp; IF(ISNUMBER(SEARCH("rs2",IF(ISBLANK($D80),$D79,$D80))),CHAR(10) &amp; SUBSTITUTE(DONOTDELETE!$A$18,"INSTR",SUBSTITUTE(IF(ISBLANK($C80),LOWER($C79),LOWER($C80)),".","_")),"")</f>
         <v>CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rd_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rs1_toggle
 CG: RISCV_coverage_pkg.RISCV_coverage__1.cv_suburnr_cg.cp_rs2_toggle</v>
       </c>
-      <c r="K81" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="D82" s="13"/>
       <c r="E82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="8"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="8"/>
       <c r="I82" s="9"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="D83" s="13"/>
       <c r="E83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="8"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="D84" s="13"/>
       <c r="E84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="8"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="8"/>
       <c r="I84" s="9"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="D85" s="13"/>
       <c r="E85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="8"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="8"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="D86" s="14"/>
       <c r="E86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="8"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="8"/>
       <c r="I86" s="9"/>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>8</v>
       </c>
@@ -3695,17 +4043,17 @@
       <c r="E90" s="12" t="s">
         <v>75</v>
       </c>
+      <c r="F90" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>8</v>
       </c>
@@ -3721,17 +4069,17 @@
       <c r="E91" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F91" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>8</v>
       </c>
@@ -3747,17 +4095,17 @@
       <c r="E92" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F92" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>8</v>
       </c>
@@ -3773,17 +4121,17 @@
       <c r="E93" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F93" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I93" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>8</v>
       </c>
@@ -3799,17 +4147,17 @@
       <c r="E94" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F94" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G94" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I94" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>8</v>
       </c>
@@ -3825,17 +4173,17 @@
       <c r="E95" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F95" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G95" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>8</v>
       </c>
@@ -3851,10 +4199,10 @@
       <c r="E96" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="F96" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I96" s="11" t="s">
@@ -3877,10 +4225,10 @@
       <c r="E97" s="12" t="s">
         <v>77</v>
       </c>
+      <c r="F97" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I97" s="11" t="s">
@@ -3903,10 +4251,10 @@
       <c r="E98" s="12" t="s">
         <v>77</v>
       </c>
+      <c r="F98" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G98" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I98" s="11" t="s">
@@ -3929,10 +4277,10 @@
       <c r="E99" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="F99" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I99" s="11" t="s">
@@ -3955,10 +4303,10 @@
       <c r="E100" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="F100" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I100" s="11" t="s">
@@ -3981,10 +4329,10 @@
       <c r="E101" s="12" t="s">
         <v>79</v>
       </c>
+      <c r="F101" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G101" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I101" s="11" t="s">
@@ -4007,10 +4355,10 @@
       <c r="E102" s="12" t="s">
         <v>80</v>
       </c>
+      <c r="F102" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I102" s="11" t="s">
@@ -4033,10 +4381,10 @@
       <c r="E103" s="12" t="s">
         <v>81</v>
       </c>
+      <c r="F103" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I103" s="11" t="s">
@@ -4059,10 +4407,10 @@
       <c r="E104" s="12" t="s">
         <v>82</v>
       </c>
+      <c r="F104" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G104" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H104" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I104" s="11" t="s">
@@ -4085,10 +4433,10 @@
       <c r="E105" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="F105" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G105" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H105" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I105" s="11" t="s">
@@ -4111,10 +4459,10 @@
       <c r="E106" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="F106" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G106" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I106" s="11" t="s">
@@ -4137,10 +4485,10 @@
       <c r="E107" s="12" t="s">
         <v>84</v>
       </c>
+      <c r="F107" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G107" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I107" s="11" t="s">
@@ -4163,10 +4511,10 @@
       <c r="E108" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="F108" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G108" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I108" s="11" t="s">
@@ -4189,10 +4537,10 @@
       <c r="E109" s="12" t="s">
         <v>90</v>
       </c>
+      <c r="F109" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G109" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I109" s="11" t="s">
@@ -4215,10 +4563,10 @@
       <c r="E110" s="12" t="s">
         <v>89</v>
       </c>
+      <c r="F110" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G110" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I110" s="11" t="s">
@@ -4241,10 +4589,10 @@
       <c r="E111" s="12" t="s">
         <v>88</v>
       </c>
+      <c r="F111" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G111" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I111" s="11" t="s">
@@ -4267,10 +4615,10 @@
       <c r="E112" s="12" t="s">
         <v>87</v>
       </c>
+      <c r="F112" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G112" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I112" s="11" t="s">
@@ -4293,10 +4641,10 @@
       <c r="E113" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="F113" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G113" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -4319,10 +4667,10 @@
       <c r="E114" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="F114" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G114" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I114" s="11" t="s">
@@ -4345,10 +4693,10 @@
       <c r="E115" s="12" t="s">
         <v>91</v>
       </c>
+      <c r="F115" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G115" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I115" s="11" t="s">
@@ -4371,10 +4719,10 @@
       <c r="E116" s="12" t="s">
         <v>86</v>
       </c>
+      <c r="F116" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G116" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I116" s="11" t="s">
@@ -4397,10 +4745,10 @@
       <c r="E117" s="12" t="s">
         <v>92</v>
       </c>
+      <c r="F117" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G117" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I117" s="11" t="s">
@@ -4423,10 +4771,10 @@
       <c r="E118" s="12" t="s">
         <v>89</v>
       </c>
+      <c r="F118" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G118" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H118" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I118" s="11" t="s">
@@ -4449,10 +4797,10 @@
       <c r="E119" s="12" t="s">
         <v>93</v>
       </c>
+      <c r="F119" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G119" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I119" s="11" t="s">
@@ -4475,10 +4823,10 @@
       <c r="E120" s="12" t="s">
         <v>87</v>
       </c>
+      <c r="F120" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="G120" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I120" s="11" t="s">
@@ -4486,28 +4834,55 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="64">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C64:C66"/>
     <mergeCell ref="A2:A81"/>
     <mergeCell ref="B2:B81"/>
     <mergeCell ref="C2:C3"/>
@@ -4524,64 +4899,6 @@
     <mergeCell ref="D76:D78"/>
     <mergeCell ref="D73:D75"/>
     <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="F79:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4624,18 +4941,18 @@
         <v>10</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>101</v>
@@ -4649,75 +4966,75 @@
         <v>9</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>182</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4727,6 +5044,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFCF9BE3DDC69D46817A851BEC5550B1" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6f429ff05de3a495de36a912eeee1367">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbd820e2-9c8a-4c01-9a9c-6b4c26777899" xmlns:ns3="51aa521f-7cbd-47c5-afee-4a8147a04eed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dba9ee4a9862521e056f2186065b8ec" ns2:_="" ns3:_="">
     <xsd:import namespace="cbd820e2-9c8a-4c01-9a9c-6b4c26777899"/>
@@ -4957,16 +5283,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61229B18-0FBD-438F-8111-DFD7A20A8FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77825C02-EF30-49B8-9EE5-D4CB7BB83022}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4983,12 +5308,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61229B18-0FBD-438F-8111-DFD7A20A8FE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>